--- a/Document/开环速度测试.xlsx
+++ b/Document/开环速度测试.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE1B9D2-03B2-415F-A7F8-8E8713AE069A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A82010-1569-43C6-B83C-B49A21C0D751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-12900" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>占空比</t>
   </si>
   <si>
-    <t>转速</t>
+    <t>电机</t>
+  </si>
+  <si>
+    <t>电机空载无闭环转速（软件计算的转速）</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>控制器电压</t>
+  </si>
+  <si>
+    <t>27.98V</t>
+  </si>
+  <si>
+    <t>电压</t>
+  </si>
+  <si>
+    <t>电流</t>
+  </si>
+  <si>
+    <t>电机竖直放置在桌子上</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,13 +61,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,6 +121,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627D324B-8879-4307-A6DF-ACAC7E71A087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="1908962" cy="2552699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,23 +441,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A10:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20190419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>814</v>
+      </c>
+      <c r="D22">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>966</v>
+      </c>
+      <c r="D23">
+        <v>27.98</v>
+      </c>
+      <c r="E23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1106</v>
+      </c>
+      <c r="D24">
+        <v>27.98</v>
+      </c>
+      <c r="E24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>1225</v>
+      </c>
+      <c r="D25">
+        <v>27.98</v>
+      </c>
+      <c r="E25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1331</v>
+      </c>
+      <c r="D26">
+        <v>27.98</v>
+      </c>
+      <c r="E26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>1443</v>
+      </c>
+      <c r="D27">
+        <v>27.98</v>
+      </c>
+      <c r="E27">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>1596</v>
+      </c>
+      <c r="D28">
+        <v>27.98</v>
+      </c>
+      <c r="E28">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>1800</v>
+      </c>
+      <c r="D29">
+        <v>27.98</v>
+      </c>
+      <c r="E29">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>2060</v>
+      </c>
+      <c r="D30">
+        <v>27.98</v>
+      </c>
+      <c r="E30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>2340</v>
+      </c>
+      <c r="D31">
+        <v>27.98</v>
+      </c>
+      <c r="E31">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>110</v>
+      </c>
+      <c r="C32">
+        <v>2593</v>
+      </c>
+      <c r="D32">
+        <v>27.98</v>
+      </c>
+      <c r="E32">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>2803</v>
+      </c>
+      <c r="D33">
+        <v>27.98</v>
+      </c>
+      <c r="E33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>130</v>
+      </c>
+      <c r="C34">
+        <v>3040</v>
+      </c>
+      <c r="D34">
+        <v>27.98</v>
+      </c>
+      <c r="E34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <v>3272</v>
+      </c>
+      <c r="D35">
+        <v>27.98</v>
+      </c>
+      <c r="E35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>150</v>
+      </c>
+      <c r="C36">
+        <v>3505</v>
+      </c>
+      <c r="D36">
+        <v>27.98</v>
+      </c>
+      <c r="E36">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/开环速度测试.xlsx
+++ b/Document/开环速度测试.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A82010-1569-43C6-B83C-B49A21C0D751}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD34CC-BD7A-4C62-9AD1-3236FBA7ED50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-12900" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
   <si>
     <t>占空比</t>
   </si>
@@ -48,6 +48,42 @@
   <si>
     <t>电机竖直放置在桌子上</t>
   </si>
+  <si>
+    <t>PWM频率</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>电机摆放位置</t>
+  </si>
+  <si>
+    <t>feature/closedLoopControl</t>
+  </si>
+  <si>
+    <t>下位机软件分支</t>
+  </si>
+  <si>
+    <t>下位机软件commit号</t>
+  </si>
+  <si>
+    <t>上位机软件分支</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>上位机软件commit号</t>
+  </si>
+  <si>
+    <t>0870471a1243a97e3bb49ea8d2cb03d753211bfb</t>
+  </si>
+  <si>
+    <t>e84b00f774e377f7c2cb668d6d4a35fb2145525c</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -102,10 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +172,1758 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3040</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B6F-438B-8B01-E1A6C06ED599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="714012112"/>
+        <c:axId val="714012432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="714012112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714012432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="714012432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714012112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3526</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3880</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4090</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AB3-4FBF-8D21-90179CE78B43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="717948048"/>
+        <c:axId val="717944848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717948048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717944848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717944848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717948048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -134,9 +1935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152</xdr:colOff>
+      <xdr:colOff>1884</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>22859</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -173,6 +1974,173 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1884</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1D2433-6726-452D-8B19-FB8E23087CE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9048750"/>
+          <a:ext cx="1924202" cy="2556509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1924202" cy="2556509"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A8D000-BE25-4CCF-BE3B-01E760E1EA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="1924202" cy="2556509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546909</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271896</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFD4C0E-6ECD-4090-9F74-AE7D29622518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>569596</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>296315</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCFE569-F8E6-4722-AC1A-442ADF656F66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -441,40 +2409,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:E55"/>
+  <dimension ref="A11:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="D15" s="4">
         <v>20190419</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,13 +2503,16 @@
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10</v>
       </c>
@@ -507,7 +2523,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -520,8 +2536,11 @@
       <c r="E23">
         <v>112</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>30</v>
       </c>
@@ -534,8 +2553,11 @@
       <c r="E24">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>40</v>
       </c>
@@ -548,8 +2570,11 @@
       <c r="E25">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>50</v>
       </c>
@@ -562,8 +2587,11 @@
       <c r="E26">
         <v>119</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>60</v>
       </c>
@@ -576,8 +2604,11 @@
       <c r="E27">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>70</v>
       </c>
@@ -590,8 +2621,11 @@
       <c r="E28">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>80</v>
       </c>
@@ -604,8 +2638,11 @@
       <c r="E29">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>90</v>
       </c>
@@ -618,8 +2655,11 @@
       <c r="E30">
         <v>137</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>100</v>
       </c>
@@ -632,8 +2672,11 @@
       <c r="E31">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>110</v>
       </c>
@@ -646,8 +2689,11 @@
       <c r="E32">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>120</v>
       </c>
@@ -660,8 +2706,11 @@
       <c r="E33">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>130</v>
       </c>
@@ -674,8 +2723,11 @@
       <c r="E34">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>140</v>
       </c>
@@ -688,8 +2740,11 @@
       <c r="E35">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>150</v>
       </c>
@@ -702,100 +2757,616 @@
       <c r="E36">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37">
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <v>20190420</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>27.98</v>
+      </c>
+      <c r="E51">
+        <v>88</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>27.98</v>
+      </c>
+      <c r="E52">
+        <v>94</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>388</v>
+      </c>
+      <c r="D53">
+        <v>27.98</v>
+      </c>
+      <c r="E53">
+        <v>89</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>445</v>
+      </c>
+      <c r="D54">
+        <v>27.98</v>
+      </c>
+      <c r="E54">
+        <v>89</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>505</v>
+      </c>
+      <c r="D55">
+        <v>27.98</v>
+      </c>
+      <c r="E55">
+        <v>88</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>591</v>
+      </c>
+      <c r="D56">
+        <v>27.98</v>
+      </c>
+      <c r="E56">
+        <v>88</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>60</v>
+      </c>
+      <c r="C57">
+        <v>704</v>
+      </c>
+      <c r="D57">
+        <v>27.98</v>
+      </c>
+      <c r="E57">
+        <v>91</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="C58">
+        <v>847</v>
+      </c>
+      <c r="D58">
+        <v>27.98</v>
+      </c>
+      <c r="E58">
+        <v>93</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>994</v>
+      </c>
+      <c r="D59">
+        <v>27.98</v>
+      </c>
+      <c r="E59">
+        <v>97</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>1133</v>
+      </c>
+      <c r="D60">
+        <v>27.98</v>
+      </c>
+      <c r="E60">
+        <v>101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>1282</v>
+      </c>
+      <c r="D61">
+        <v>27.98</v>
+      </c>
+      <c r="E61">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>110</v>
+      </c>
+      <c r="C62">
+        <v>1436</v>
+      </c>
+      <c r="D62">
+        <v>27.98</v>
+      </c>
+      <c r="E62">
+        <v>109</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>1600</v>
+      </c>
+      <c r="D63">
+        <v>27.98</v>
+      </c>
+      <c r="E63">
+        <v>113</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>1808</v>
+      </c>
+      <c r="D64">
+        <v>27.98</v>
+      </c>
+      <c r="E64">
+        <v>118</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>140</v>
+      </c>
+      <c r="C65">
+        <v>1988</v>
+      </c>
+      <c r="D65">
+        <v>27.98</v>
+      </c>
+      <c r="E65">
+        <v>122</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>150</v>
+      </c>
+      <c r="C66">
+        <v>2130</v>
+      </c>
+      <c r="D66">
+        <v>27.98</v>
+      </c>
+      <c r="E66">
+        <v>127</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38">
+      <c r="C67">
+        <v>2345</v>
+      </c>
+      <c r="D67">
+        <v>27.98</v>
+      </c>
+      <c r="E67">
+        <v>131</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68">
         <v>170</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39">
+      <c r="C68">
+        <v>2515</v>
+      </c>
+      <c r="D68">
+        <v>27.98</v>
+      </c>
+      <c r="E68">
+        <v>139</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40">
+      <c r="C69">
+        <v>2680</v>
+      </c>
+      <c r="D69">
+        <v>27.98</v>
+      </c>
+      <c r="E69">
+        <v>140</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41">
+      <c r="C70">
+        <v>2800</v>
+      </c>
+      <c r="D70">
+        <v>27.98</v>
+      </c>
+      <c r="E70">
+        <v>149</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42">
+      <c r="C71">
+        <v>2980</v>
+      </c>
+      <c r="D71">
+        <v>27.98</v>
+      </c>
+      <c r="E71">
+        <v>150</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43">
+      <c r="C72">
+        <v>3150</v>
+      </c>
+      <c r="D72">
+        <v>27.98</v>
+      </c>
+      <c r="E72">
+        <v>155</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44">
+      <c r="C73">
+        <v>3320</v>
+      </c>
+      <c r="D73">
+        <v>27.98</v>
+      </c>
+      <c r="E73">
+        <v>159</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74">
         <v>230</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45">
+      <c r="C74">
+        <v>3526</v>
+      </c>
+      <c r="D74">
+        <v>27.98</v>
+      </c>
+      <c r="E74">
+        <v>163</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75">
         <v>240</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46">
+      <c r="C75">
+        <v>3740</v>
+      </c>
+      <c r="D75">
+        <v>27.98</v>
+      </c>
+      <c r="E75">
+        <v>168</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47">
+      <c r="C76">
+        <v>3880</v>
+      </c>
+      <c r="D76">
+        <v>27.98</v>
+      </c>
+      <c r="E76">
+        <v>171</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77">
         <v>260</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48">
+      <c r="C77">
+        <v>4090</v>
+      </c>
+      <c r="D77">
+        <v>27.98</v>
+      </c>
+      <c r="E77">
+        <v>173</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78">
         <v>270</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49">
+      <c r="C78">
+        <v>4200</v>
+      </c>
+      <c r="D78">
+        <v>27.98</v>
+      </c>
+      <c r="E78">
+        <v>179</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79">
         <v>280</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50">
+      <c r="C79">
+        <v>4530</v>
+      </c>
+      <c r="D79">
+        <v>27.98</v>
+      </c>
+      <c r="E79">
+        <v>179</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80">
         <v>290</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51">
+      <c r="C80">
+        <v>4680</v>
+      </c>
+      <c r="D80">
+        <v>27.98</v>
+      </c>
+      <c r="E80">
+        <v>182</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>340</v>
+      <c r="C81">
+        <v>4800</v>
+      </c>
+      <c r="D81">
+        <v>27.98</v>
+      </c>
+      <c r="E81">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Document/开环速度测试.xlsx
+++ b/Document/开环速度测试.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD34CC-BD7A-4C62-9AD1-3236FBA7ED50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37FB5E-AA24-46CA-81A5-191A422BD207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12900" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="21">
   <si>
     <t>占空比</t>
   </si>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,6 +155,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2074,13 +2075,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>546909</xdr:colOff>
+      <xdr:colOff>158289</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271896</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>492876</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>167379</xdr:rowOff>
     </xdr:to>
@@ -2110,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>569596</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>60093</xdr:rowOff>
+      <xdr:colOff>81916</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>296315</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>418235</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2409,17 +2410,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A11:F81"/>
+  <dimension ref="A11:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2471,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,13 +2507,21 @@
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>10</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>30</v>
       </c>
@@ -2557,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>40</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>50</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>60</v>
       </c>
@@ -2608,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>70</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>80</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>90</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>100</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>110</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -2844,8 +2853,16 @@
       <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>10</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>20</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>30</v>
       </c>
@@ -2913,7 +2930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>40</v>
       </c>
@@ -2930,7 +2947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>50</v>
       </c>
@@ -2947,7 +2964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>60</v>
       </c>
@@ -2964,7 +2981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>70</v>
       </c>
@@ -2981,7 +2998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>80</v>
       </c>
@@ -2998,7 +3015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>90</v>
       </c>
@@ -3015,7 +3032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>100</v>
       </c>
@@ -3032,7 +3049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>110</v>
       </c>
@@ -3049,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>120</v>
       </c>
@@ -3066,7 +3083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>130</v>
       </c>
